--- a/Data_Entry.xlsx
+++ b/Data_Entry.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="month">Test1!$K$3</definedName>
+    <definedName name="year">Test1!$J$3</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>Project</t>
   </si>
   <si>
-    <t>Seat Option</t>
-  </si>
-  <si>
     <t>Row</t>
   </si>
   <si>
@@ -34,27 +35,65 @@
     <t>ArmRest</t>
   </si>
   <si>
-    <t>Seat_Option</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>2열</t>
   </si>
   <si>
     <t>1111</t>
+  </si>
+  <si>
+    <t>1열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL7m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seat_option</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seat_Option2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -62,8 +101,24 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -90,9 +145,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -102,22 +155,91 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:H13" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:H13"/>
+  <tableColumns count="8">
+    <tableColumn id="8" name="Date"/>
+    <tableColumn id="1" name="Project"/>
+    <tableColumn id="2" name="Seat_option"/>
+    <tableColumn id="3" name="Row"/>
+    <tableColumn id="4" name="Vent"/>
+    <tableColumn id="5" name="Heater"/>
+    <tableColumn id="6" name="ArmRest"/>
+    <tableColumn id="7" name="Seat_Option2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -191,6 +313,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -225,6 +348,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,57 +524,369 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>45231</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>45231</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>45231</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>45231</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>45231</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>45231</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>45231</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>45233</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>45233</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>45233</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>45233</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>45233</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>2222</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3">
+      <formula1>"1월,2월,3월"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>